--- a/ConceptsSheet.xlsx
+++ b/ConceptsSheet.xlsx
@@ -43,8 +43,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -70,9 +76,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,11 +374,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <sheetData>
@@ -396,9 +401,13 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/ConceptsSheet.xlsx
+++ b/ConceptsSheet.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Concepts" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="87">
   <si>
     <t>Concept</t>
   </si>
@@ -33,10 +33,253 @@
     <t>Page</t>
   </si>
   <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Hola</t>
+    <t>Graphic</t>
+  </si>
+  <si>
+    <t>Adiabatic</t>
+  </si>
+  <si>
+    <t>condition of zero heat interaction at system boundaries</t>
+  </si>
+  <si>
+    <t>ELLIOTICET02</t>
+  </si>
+  <si>
+    <t>xxi</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Association</t>
+  </si>
+  <si>
+    <t>description of complex formation where all molecules in the complex are of the same type</t>
+  </si>
+  <si>
+    <t>mixture which does not change composition upon vapor-liquid phase change.</t>
+  </si>
+  <si>
+    <t>Azeotrope</t>
+  </si>
+  <si>
+    <t>Barotropy</t>
+  </si>
+  <si>
+    <t>the state of a fluid in which surfaces of constant density (or temperature) are coincident with surfaces of constant pressure.</t>
+  </si>
+  <si>
+    <t>Binodal</t>
+  </si>
+  <si>
+    <t>condition of binary phase equilibrium</t>
+  </si>
+  <si>
+    <t>Dead state</t>
+  </si>
+  <si>
+    <t>a description of the state of the system when it is in equilibrium with the surroundings, and no work can be obtained by interactions with the surroundings.</t>
+  </si>
+  <si>
+    <t>Diathermal</t>
+  </si>
+  <si>
+    <t>heat conducting, and without thermal resistance, but impermeable to mass.</t>
+  </si>
+  <si>
+    <t>EOS</t>
+  </si>
+  <si>
+    <t>Equation of state.</t>
+  </si>
+  <si>
+    <t>Fugacity</t>
+  </si>
+  <si>
+    <t>characterizes the escaping tendency of a component, defined mathematically.</t>
+  </si>
+  <si>
+    <t>Heteroazeotrope</t>
+  </si>
+  <si>
+    <t>mixture that is not completely miscible in all proportions in the liquid phase and like an azeotrope cannot be separated by simple distillation. The heteroazeotropic vapor condenses to two liquid phases, each with a different composition than the vapor. Upon partial or total vaporization, the original vapor composition is reproduced.</t>
+  </si>
+  <si>
+    <t>Infinite dilution</t>
+  </si>
+  <si>
+    <t>description of a state where a component’s composition approaches zero.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irreversible </t>
+  </si>
+  <si>
+    <t>a process which generates entropy.</t>
+  </si>
+  <si>
+    <t>condition of constant enthalpy.</t>
+  </si>
+  <si>
+    <t>Isenthalpic</t>
+  </si>
+  <si>
+    <t>condition of constant entropy.</t>
+  </si>
+  <si>
+    <t>Isentropic</t>
+  </si>
+  <si>
+    <t>ratio characterizing actual work relative to ideal work for an isentropic process with the same inlet (or initial) state and the same outlet (or final) pressure</t>
+  </si>
+  <si>
+    <t>Isobaric</t>
+  </si>
+  <si>
+    <t>condition of constant pressure.</t>
+  </si>
+  <si>
+    <t>condition of constant volume.</t>
+  </si>
+  <si>
+    <t>Isochore</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>Isentropic efficiency</t>
+  </si>
+  <si>
+    <t>efficiency</t>
+  </si>
+  <si>
+    <t>azeotropy</t>
+  </si>
+  <si>
+    <t>conditions</t>
+  </si>
+  <si>
+    <t>xxii</t>
+  </si>
+  <si>
+    <t>Isopiestic</t>
+  </si>
+  <si>
+    <t>constant or equal pressure.</t>
+  </si>
+  <si>
+    <t>Isopycnic</t>
+  </si>
+  <si>
+    <t>condition of equal or constant density.</t>
+  </si>
+  <si>
+    <t>A system that has no interactions of any kind with the surroundings (e.g. mass, heat, and work interactions) is said to be isolated.</t>
+  </si>
+  <si>
+    <t>Isolated</t>
+  </si>
+  <si>
+    <t>Isoteric</t>
+  </si>
+  <si>
+    <t>Isothermal</t>
+  </si>
+  <si>
+    <t>condition of constant temperature</t>
+  </si>
+  <si>
+    <t>condition of constant density</t>
+  </si>
+  <si>
+    <t>LLE</t>
+  </si>
+  <si>
+    <t>liquid-liquid equilibria,</t>
+  </si>
+  <si>
+    <t>equilibria</t>
+  </si>
+  <si>
+    <t>Measurable properties</t>
+  </si>
+  <si>
+    <t>variables from the set {P, V, T, CP, CV} and derivatives involving only {P, V, T}.</t>
+  </si>
+  <si>
+    <t>properties</t>
+  </si>
+  <si>
+    <t>Metastable</t>
+  </si>
+  <si>
+    <t>signifies existence of a state which is non-equilibrium, but not unstable, e.g., superheated vapor, subcooled liquid, which may persist until a disturbance creates movement of the system towards equilibrium.</t>
+  </si>
+  <si>
+    <t>Nozzle</t>
+  </si>
+  <si>
+    <t>a specially designed device which nearly reversibly converts internal energy to kinetic energy</t>
+  </si>
+  <si>
+    <t>energy,devices</t>
+  </si>
+  <si>
+    <t>Polytropic exponent</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>the mass fraction of a vapor/liquid mixture that is vapor.</t>
+  </si>
+  <si>
+    <t>The exponent (n) in the expression (PV)^n = constant.</t>
+  </si>
+  <si>
+    <t>equilibria, mixtures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdf </t>
+  </si>
+  <si>
+    <t>radical distribution function</t>
+  </si>
+  <si>
+    <t>Reference state</t>
+  </si>
+  <si>
+    <t>a state for a pure substance at a specified (T,P) and type of phase (S,L,V). The reference state is invariant to the system (P,T) throughout an entire thermodynamic problem. A problem may have various standard states, but only one reference state</t>
+  </si>
+  <si>
+    <t>equilibria, mixtures, state</t>
+  </si>
+  <si>
+    <t>Sensible heat changes</t>
+  </si>
+  <si>
+    <t>heat effects accompanied by a temperature change.</t>
+  </si>
+  <si>
+    <t>heat, energy</t>
+  </si>
+  <si>
+    <t>Specific heat</t>
+  </si>
+  <si>
+    <t>another term for CP or CV with units per mass.</t>
+  </si>
+  <si>
+    <t>Specific property</t>
+  </si>
+  <si>
+    <t>an intensive property per unit mass.</t>
+  </si>
+  <si>
+    <t>SLE</t>
+  </si>
+  <si>
+    <t>solid-liquid equilibria.</t>
   </si>
 </sst>
 </file>
@@ -50,10 +293,9 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -76,10 +318,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,40 +641,678 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="16" style="4" customWidth="1"/>
+    <col min="2" max="2" width="52.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="11.5703125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="D11" s="2"/>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="25.5">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="25.5">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="38.25">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="38.25">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="25.5">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="25.5">
+      <c r="A10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="76.5">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="25.5">
+      <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="38.25">
+      <c r="A16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="38.25">
+      <c r="A21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="25.5">
+      <c r="A25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="51">
+      <c r="A26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="25.5">
+      <c r="A27" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="25.5">
+      <c r="A28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="63.75">
+      <c r="A31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="25.5">
+      <c r="A32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/ConceptsSheet.xlsx
+++ b/ConceptsSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="142">
   <si>
     <t>Concept</t>
   </si>
@@ -409,38 +409,44 @@
     <t>Maintaining order requires work. Entropy generation leads to lost work.</t>
   </si>
   <si>
-    <t>the sum total of all capacity for doing work that is associated with matter: kinetic, potential, submolecular (i.e., molecular rearrangements by reaction), or subatomic (e.g., onization, fission).</t>
-  </si>
-  <si>
-    <t>You can’t get something for nothing. Energy is conserved.</t>
-  </si>
-  <si>
     <t>Kinetic energy</t>
   </si>
   <si>
-    <t>the energy associated with motion of a system. Motion can be
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>heat, energy, conditions, states</t>
+  </si>
+  <si>
+    <t>Potential energy</t>
+  </si>
+  <si>
+    <t>First law of thermodynamics</t>
+  </si>
+  <si>
+    <t>Second law of thermodynamics</t>
+  </si>
+  <si>
+    <t>Zeroth law of thermodynamics</t>
+  </si>
+  <si>
+    <t>fact that ou can’t get something for nothing. Energy is conserved.</t>
+  </si>
+  <si>
+    <t>sum total of all capacity for doing work that is associated with matter: kinetic, potential, submolecular (i.e., molecular rearrangements by reaction), or subatomic (e.g., onization, fission).</t>
+  </si>
+  <si>
+    <t>energy associated with motion of a system. Motion can be
 classified as translational, rotational, or vibrational.</t>
   </si>
   <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>heat, energy, conditions, states</t>
-  </si>
-  <si>
-    <t>Potential energy</t>
-  </si>
-  <si>
-    <t>the energy associated with a system due to its position in a force field.</t>
-  </si>
-  <si>
-    <t>the “hotness” of a substance, but is fundamentally related to the kinetic energy of the constituitive atoms. It is proportional to the average molecular kinectic energy,</t>
-  </si>
-  <si>
-    <t>First law of thermodynamics</t>
-  </si>
-  <si>
-    <t>Second law of thermodynamics</t>
+    <t>“hotness” of a substance, but is fundamentally related to the kinetic energy of the constituitive atoms. It is proportional to the average molecular kinectic energy,</t>
+  </si>
+  <si>
+    <t>energy associated with a system due to its position in a force field.</t>
+  </si>
+  <si>
+    <t>fact that if two objects are in equilibrium with a third, then they are in equilibrium with one another</t>
   </si>
 </sst>
 </file>
@@ -809,11 +815,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -1978,7 +1984,7 @@
         <v>123</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>7</v>
@@ -1998,10 +2004,10 @@
     </row>
     <row r="54" spans="1:7" ht="25.5">
       <c r="A54" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>7</v>
@@ -2021,7 +2027,7 @@
     </row>
     <row r="55" spans="1:7" ht="25.5">
       <c r="A55" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>128</v>
@@ -2042,12 +2048,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="38.25">
+    <row r="56" spans="1:7" ht="25.5">
       <c r="A56" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>7</v>
@@ -2067,10 +2073,10 @@
     </row>
     <row r="57" spans="1:7" ht="38.25">
       <c r="A57" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>7</v>
@@ -2085,15 +2091,15 @@
         <v>9</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="25.5">
       <c r="A58" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>7</v>
@@ -2110,6 +2116,32 @@
       <c r="G58" s="2" t="s">
         <v>124</v>
       </c>
+    </row>
+    <row r="59" spans="1:7" ht="25.5">
+      <c r="A59" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2">
+        <v>7</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="F61" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/ConceptsSheet.xlsx
+++ b/ConceptsSheet.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Concepts" sheetId="1" r:id="rId1"/>
+    <sheet name="Remeber" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="159">
   <si>
     <t>Concept</t>
   </si>
@@ -447,6 +449,58 @@
   </si>
   <si>
     <t>fact that if two objects are in equilibrium with a third, then they are in equilibrium with one another</t>
+  </si>
+  <si>
+    <t>Absolute temperature</t>
+  </si>
+  <si>
+    <t>temperature in Kelvin or Rankine,</t>
+  </si>
+  <si>
+    <t>Intermolecular forces</t>
+  </si>
+  <si>
+    <t>group of forces which include: electrostatic forces between charged particles (ions) and between permanent dipoles, quadrupoles, and higher multipoles; induction forces between a permanent dipole (or quadrupole) and an induced dipole; forces of attraction (dispersion forces) due to the polarizability of electron clouds and repulsion due to prohibited overlap; and specific (chemical) forces leading to association and complex formation, especially evident in the case of hydrogen bonding.</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Attractive forces and potential energies are negative. Repulsive forces and potential energies are positive.</t>
+  </si>
+  <si>
+    <t>forces, energy</t>
+  </si>
+  <si>
+    <t>Solids and liquids exist due to the intermolecular potential energy (molecular “stickiness’) of atoms. If molecules were not “sticky” all matter would be gases or solids. Thus, the principles of molecular potential energy are important for developing a molecular perspective on the nature of liquids, solids, and non-ideal gases.</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>integral of force over distance.</t>
+  </si>
+  <si>
+    <t>Intermolecular potential energy</t>
+  </si>
+  <si>
+    <t>work (integral of force over distance) of bringing two
+molecules from infinite distance to a specific distance, r. It is symbolized as u(r).</t>
+  </si>
+  <si>
+    <t>Dipole</t>
+  </si>
+  <si>
+    <t>model of the charge distribution on the molecule, and it is thus an approximate description of the charge distribution.</t>
+  </si>
+  <si>
+    <t>Coulomb's Law</t>
+  </si>
+  <si>
+    <t>description of the force between two point charges. Upon integration, the potential energy is proportional to inverse distance.</t>
+  </si>
+  <si>
+    <t>A key feature of dipole-dipole forces is the temperature dependence</t>
   </si>
 </sst>
 </file>
@@ -495,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -520,6 +574,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -815,19 +878,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="16" style="7" customWidth="1"/>
     <col min="2" max="2" width="52.42578125" style="8" customWidth="1"/>
-    <col min="3" max="4" width="13.5703125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.5703125" style="2"/>
+    <col min="3" max="4" width="13.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="9"/>
+    <col min="6" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
@@ -860,13 +924,13 @@
       <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -883,13 +947,13 @@
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -903,13 +967,13 @@
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -926,13 +990,13 @@
       <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -946,13 +1010,13 @@
       <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="C6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -966,13 +1030,13 @@
       <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="C7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -989,13 +1053,13 @@
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="C8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -1009,13 +1073,13 @@
       <c r="B9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="C9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -1032,13 +1096,13 @@
       <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="C10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1052,13 +1116,13 @@
       <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="C11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -1075,13 +1139,13 @@
       <c r="B12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="C12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -1095,13 +1159,13 @@
       <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="C13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1115,13 +1179,13 @@
       <c r="B14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="C14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -1138,13 +1202,13 @@
       <c r="B15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="C15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -1161,13 +1225,13 @@
       <c r="B16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="C16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -1184,13 +1248,13 @@
       <c r="B17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="C17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -1207,13 +1271,13 @@
       <c r="B18" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="C18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -1230,13 +1294,13 @@
       <c r="B19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="C19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -1253,13 +1317,13 @@
       <c r="B20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="C20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -1276,13 +1340,13 @@
       <c r="B21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="C21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -1299,13 +1363,13 @@
       <c r="B22" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="C22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -1322,13 +1386,13 @@
       <c r="B23" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="C23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -1345,13 +1409,13 @@
       <c r="B24" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="C24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -1368,13 +1432,13 @@
       <c r="B25" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="C25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F25" s="3" t="s">
@@ -1391,13 +1455,13 @@
       <c r="B26" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="C26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -1414,13 +1478,13 @@
       <c r="B27" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="C27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -1437,13 +1501,13 @@
       <c r="B28" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="C28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -1457,13 +1521,13 @@
       <c r="B29" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="C29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -1480,13 +1544,13 @@
       <c r="B30" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="C30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -1500,13 +1564,13 @@
       <c r="B31" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="C31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F31" s="3" t="s">
@@ -1523,13 +1587,13 @@
       <c r="B32" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="C32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F32" s="3" t="s">
@@ -1546,13 +1610,13 @@
       <c r="B33" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="C33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F33" s="3" t="s">
@@ -1569,13 +1633,13 @@
       <c r="B34" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="C34" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F34" s="3" t="s">
@@ -1592,13 +1656,13 @@
       <c r="B35" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="C35" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F35" s="3" t="s">
@@ -1615,13 +1679,13 @@
       <c r="B36" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="C36" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F36" s="3" t="s">
@@ -1638,13 +1702,13 @@
       <c r="B37" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E37" s="2" t="s">
+      <c r="C37" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F37" s="3" t="s">
@@ -1661,13 +1725,13 @@
       <c r="B38" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="C38" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F38" s="3" t="s">
@@ -1684,13 +1748,13 @@
       <c r="B39" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="C39" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F39" s="3" t="s">
@@ -1707,13 +1771,13 @@
       <c r="B40" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="C40" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F40" s="3" t="s">
@@ -1730,13 +1794,13 @@
       <c r="B41" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E41" s="2" t="s">
+      <c r="C41" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F41" s="3" t="s">
@@ -1753,13 +1817,13 @@
       <c r="B42" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="C42" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="9" t="s">
         <v>103</v>
       </c>
       <c r="F42" s="3" t="s">
@@ -1776,13 +1840,13 @@
       <c r="B43" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="C43" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" s="9" t="s">
         <v>103</v>
       </c>
       <c r="F43" s="3" t="s">
@@ -1799,13 +1863,13 @@
       <c r="B44" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="C44" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>103</v>
       </c>
       <c r="F44" s="3" t="s">
@@ -1822,13 +1886,13 @@
       <c r="B45" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E45" s="2" t="s">
+      <c r="C45" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>103</v>
       </c>
       <c r="F45" s="3" t="s">
@@ -1845,13 +1909,13 @@
       <c r="B46" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E46" s="2" t="s">
+      <c r="C46" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>103</v>
       </c>
       <c r="F46" s="3" t="s">
@@ -1868,13 +1932,13 @@
       <c r="B47" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E47" s="2" t="s">
+      <c r="C47" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" s="9" t="s">
         <v>103</v>
       </c>
       <c r="F47" s="3" t="s">
@@ -1891,13 +1955,13 @@
       <c r="B48" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="C48" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E48" s="9" t="s">
         <v>103</v>
       </c>
       <c r="F48" s="3" t="s">
@@ -1914,13 +1978,13 @@
       <c r="B49" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E49" s="2" t="s">
+      <c r="C49" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E49" s="9" t="s">
         <v>103</v>
       </c>
       <c r="F49" s="3" t="s">
@@ -1937,13 +2001,13 @@
       <c r="B50" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E50" s="2" t="s">
+      <c r="C50" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>103</v>
       </c>
       <c r="F50" s="3" t="s">
@@ -1960,13 +2024,13 @@
       <c r="B51" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E51" s="2" t="s">
+      <c r="C51" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>103</v>
       </c>
       <c r="F51" s="3" t="s">
@@ -1986,13 +2050,13 @@
       <c r="B53" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="3">
+      <c r="C53" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="10">
         <v>1</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="9">
         <v>6</v>
       </c>
       <c r="F53" s="3" t="s">
@@ -2009,13 +2073,13 @@
       <c r="B54" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="3">
+      <c r="C54" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="10">
         <v>1</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="9">
         <v>4</v>
       </c>
       <c r="F54" s="3" t="s">
@@ -2032,13 +2096,13 @@
       <c r="B55" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="3">
+      <c r="C55" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="10">
         <v>1</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="9">
         <v>4</v>
       </c>
       <c r="F55" s="3" t="s">
@@ -2055,13 +2119,13 @@
       <c r="B56" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="3">
+      <c r="C56" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="10">
         <v>1</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="9">
         <v>6</v>
       </c>
       <c r="F56" s="3" t="s">
@@ -2078,13 +2142,13 @@
       <c r="B57" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="3">
+      <c r="C57" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="10">
         <v>1</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="9">
         <v>6</v>
       </c>
       <c r="F57" s="3" t="s">
@@ -2101,13 +2165,13 @@
       <c r="B58" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="3">
+      <c r="C58" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="10">
         <v>1</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="9">
         <v>6</v>
       </c>
       <c r="F58" s="3" t="s">
@@ -2124,13 +2188,13 @@
       <c r="B59" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="3">
+      <c r="C59" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="10">
         <v>1</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="9">
         <v>7</v>
       </c>
       <c r="F59" s="3" t="s">
@@ -2140,8 +2204,143 @@
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
-      <c r="F61" s="3"/>
+    <row r="60" spans="1:7" ht="25.5">
+      <c r="A60" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="10">
+        <v>1</v>
+      </c>
+      <c r="E60" s="9">
+        <v>6</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="114.75">
+      <c r="A61" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="10">
+        <v>1</v>
+      </c>
+      <c r="E61" s="9">
+        <v>8</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="10">
+        <v>1</v>
+      </c>
+      <c r="E62" s="9">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="38.25">
+      <c r="A63" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="10">
+        <v>1</v>
+      </c>
+      <c r="E63" s="9">
+        <v>8</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="25.5">
+      <c r="A64" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="10">
+        <v>1</v>
+      </c>
+      <c r="E64" s="9">
+        <v>9</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="38.25">
+      <c r="A65" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="10">
+        <v>1</v>
+      </c>
+      <c r="E65" s="9">
+        <v>9</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>148</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -2151,4 +2350,106 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="78.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="9" customWidth="1"/>
+    <col min="3" max="5" width="11.42578125" style="9"/>
+    <col min="6" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="A1" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="25.5">
+      <c r="A2" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>8</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="51">
+      <c r="A3" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>9</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ConceptsSheet.xlsx
+++ b/ConceptsSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Concepts" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="175">
   <si>
     <t>Concept</t>
   </si>
@@ -234,9 +234,6 @@
   </si>
   <si>
     <t>equilibria, mixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdf </t>
   </si>
   <si>
     <t>radical distribution function</t>
@@ -500,7 +497,59 @@
     <t>description of the force between two point charges. Upon integration, the potential energy is proportional to inverse distance.</t>
   </si>
   <si>
-    <t>A key feature of dipole-dipole forces is the temperature dependence</t>
+    <t>A key feature of dipole-dipole forces is the temperature dependence.</t>
+  </si>
+  <si>
+    <t>Boltzmann's constant</t>
+  </si>
+  <si>
+    <t>functions</t>
+  </si>
+  <si>
+    <t>RDF</t>
+  </si>
+  <si>
+    <t>forces, energy, laws</t>
+  </si>
+  <si>
+    <t>forces, energy, functions</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>ratio of Universal gas constant divided by the Avogadro number.</t>
+  </si>
+  <si>
+    <t>forces, energy, laws, constants</t>
+  </si>
+  <si>
+    <t>Engineering Potential Models</t>
+  </si>
+  <si>
+    <t>forces, energy, laws, functions, models, engineering-potential-models</t>
+  </si>
+  <si>
+    <t>Lennard-Jones potential model</t>
+  </si>
+  <si>
+    <t>Lennad-Jones potential, square-well potential and Sutherland potential models. They are based on the forms of electrostatic, induction, dispersion and repulsive forces. The key features of all of these potential models are the representation of the size of the molecule by the parameter (sigma) and the attractive strength by the parameter (epsilon). r is the distance.</t>
+  </si>
+  <si>
+    <t>Square-well potential model</t>
+  </si>
+  <si>
+    <t>Sutherland potential model</t>
+  </si>
+  <si>
+    <t>Configurational energy</t>
+  </si>
+  <si>
+    <t>one of the engineering potential models. See Engineering Potential Models.</t>
+  </si>
+  <si>
+    <t>potential energy of a system of molecules in their 'configuration'. When we sum the potential energy for a collection of molecules, we often call the sum
+configurational energy to differentiate quantity from the potential energy which is commonly used when discussing atoms or sites.</t>
   </si>
 </sst>
 </file>
@@ -549,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -580,6 +629,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -878,11 +930,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -905,7 +957,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -928,7 +980,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>8</v>
@@ -951,13 +1003,16 @@
         <v>7</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="25.5">
@@ -971,7 +1026,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>8</v>
@@ -994,13 +1049,16 @@
         <v>7</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1014,13 +1072,16 @@
         <v>7</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="38.25">
@@ -1034,7 +1095,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>8</v>
@@ -1057,13 +1118,16 @@
         <v>7</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1077,7 +1141,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>8</v>
@@ -1100,13 +1164,16 @@
         <v>7</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="76.5">
@@ -1120,7 +1187,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>8</v>
@@ -1143,13 +1210,16 @@
         <v>7</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1163,13 +1233,16 @@
         <v>7</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1183,7 +1256,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>8</v>
@@ -1206,7 +1279,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>8</v>
@@ -1229,7 +1302,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>8</v>
@@ -1238,7 +1311,7 @@
         <v>9</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1252,7 +1325,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>8</v>
@@ -1275,7 +1348,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>45</v>
@@ -1298,7 +1371,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>45</v>
@@ -1321,7 +1394,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>45</v>
@@ -1344,7 +1417,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>45</v>
@@ -1367,7 +1440,7 @@
         <v>7</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>45</v>
@@ -1390,7 +1463,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>45</v>
@@ -1413,7 +1486,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>45</v>
@@ -1436,7 +1509,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>45</v>
@@ -1459,7 +1532,7 @@
         <v>7</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>45</v>
@@ -1468,7 +1541,7 @@
         <v>9</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="25.5">
@@ -1482,7 +1555,7 @@
         <v>7</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>45</v>
@@ -1491,7 +1564,7 @@
         <v>9</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="25.5">
@@ -1505,13 +1578,16 @@
         <v>7</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1525,7 +1601,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>45</v>
@@ -1539,16 +1615,16 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>72</v>
-      </c>
       <c r="C30" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>45</v>
@@ -1556,19 +1632,22 @@
       <c r="F30" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="G30" s="2" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="63.75">
       <c r="A31" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>74</v>
-      </c>
       <c r="C31" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>45</v>
@@ -1577,21 +1656,21 @@
         <v>9</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="25.5">
       <c r="A32" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="C32" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>45</v>
@@ -1600,21 +1679,21 @@
         <v>9</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="C33" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>45</v>
@@ -1623,21 +1702,21 @@
         <v>9</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>81</v>
-      </c>
       <c r="C34" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>45</v>
@@ -1651,16 +1730,16 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>83</v>
-      </c>
       <c r="C35" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>45</v>
@@ -1674,16 +1753,16 @@
     </row>
     <row r="36" spans="1:7" ht="25.5">
       <c r="A36" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>85</v>
-      </c>
       <c r="C36" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>45</v>
@@ -1692,21 +1771,21 @@
         <v>9</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="25.5">
       <c r="A37" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="C37" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>45</v>
@@ -1715,21 +1794,21 @@
         <v>9</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="25.5">
       <c r="A38" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>90</v>
-      </c>
       <c r="C38" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>45</v>
@@ -1738,21 +1817,21 @@
         <v>9</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="38.25">
       <c r="A39" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>45</v>
@@ -1761,21 +1840,21 @@
         <v>9</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="165.75">
       <c r="A40" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>95</v>
-      </c>
       <c r="C40" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>45</v>
@@ -1784,21 +1863,21 @@
         <v>9</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="25.5">
       <c r="A41" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>97</v>
-      </c>
       <c r="C41" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>45</v>
@@ -1807,208 +1886,208 @@
         <v>9</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="38.25">
       <c r="A42" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>103</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="102">
       <c r="A44" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>105</v>
-      </c>
       <c r="C44" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="25.5">
       <c r="A45" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>107</v>
-      </c>
       <c r="C45" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="38.25">
       <c r="A46" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>109</v>
-      </c>
       <c r="C46" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="51">
       <c r="A47" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="38.25">
       <c r="A48" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="C48" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="25.5">
       <c r="A49" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>117</v>
-      </c>
       <c r="C49" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="C50" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>9</v>
@@ -2019,25 +2098,25 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="C51" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2045,10 +2124,10 @@
     </row>
     <row r="53" spans="1:7" ht="51">
       <c r="A53" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>7</v>
@@ -2063,15 +2142,15 @@
         <v>9</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="25.5">
       <c r="A54" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>7</v>
@@ -2086,15 +2165,15 @@
         <v>9</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="25.5">
       <c r="A55" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>7</v>
@@ -2109,15 +2188,15 @@
         <v>9</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="25.5">
       <c r="A56" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>7</v>
@@ -2132,15 +2211,15 @@
         <v>9</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="38.25">
       <c r="A57" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>7</v>
@@ -2151,19 +2230,19 @@
       <c r="E57" s="9">
         <v>6</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>9</v>
+      <c r="F57" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="25.5">
       <c r="A58" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>7</v>
@@ -2178,15 +2257,15 @@
         <v>9</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="25.5">
       <c r="A59" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>7</v>
@@ -2201,15 +2280,15 @@
         <v>9</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="25.5">
       <c r="A60" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>143</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>7</v>
@@ -2224,15 +2303,15 @@
         <v>9</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="114.75">
       <c r="A61" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>7</v>
@@ -2246,16 +2325,16 @@
       <c r="F61" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G61" s="3" t="s">
-        <v>148</v>
+      <c r="G61" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>151</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>7</v>
@@ -2270,15 +2349,15 @@
         <v>9</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="38.25">
       <c r="A63" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>153</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>7</v>
@@ -2293,15 +2372,15 @@
         <v>9</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="25.5">
       <c r="A64" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B64" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>7</v>
@@ -2312,19 +2391,19 @@
       <c r="E64" s="9">
         <v>9</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>9</v>
+      <c r="F64" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="38.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="38.25">
       <c r="A65" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>7</v>
@@ -2335,11 +2414,150 @@
       <c r="E65" s="9">
         <v>9</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>9</v>
+      <c r="F65" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>148</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="25.5">
+      <c r="A66" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="10">
+        <v>1</v>
+      </c>
+      <c r="E66" s="9">
+        <v>9</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="89.25">
+      <c r="A67" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="10">
+        <v>1</v>
+      </c>
+      <c r="E67" s="9">
+        <v>10</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" ht="25.5">
+      <c r="A68" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="10">
+        <v>1</v>
+      </c>
+      <c r="E68" s="9">
+        <v>11</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="25.5">
+      <c r="A69" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="10">
+        <v>1</v>
+      </c>
+      <c r="E69" s="9">
+        <v>11</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="25.5">
+      <c r="A70" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="10">
+        <v>1</v>
+      </c>
+      <c r="E70" s="9">
+        <v>11</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="76.5">
+      <c r="A71" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="10">
+        <v>1</v>
+      </c>
+      <c r="E71" s="9">
+        <v>12</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2354,16 +2572,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="78.140625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="78.140625" style="12" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="9" customWidth="1"/>
     <col min="3" max="5" width="11.42578125" style="9"/>
     <col min="6" max="16384" width="11.42578125" style="2"/>
@@ -2371,13 +2589,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2390,8 +2608,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="25.5">
-      <c r="A2" s="11" t="s">
-        <v>147</v>
+      <c r="A2" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>7</v>
@@ -2406,12 +2624,12 @@
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="51">
+      <c r="A3" s="12" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="51">
-      <c r="A3" s="11" t="s">
-        <v>149</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>7</v>
@@ -2426,12 +2644,12 @@
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
-        <v>158</v>
+      <c r="A4" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>7</v>
@@ -2446,8 +2664,11 @@
         <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>148</v>
-      </c>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ConceptsSheet.xlsx
+++ b/ConceptsSheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="196">
   <si>
     <t>Concept</t>
   </si>
@@ -550,6 +550,70 @@
   <si>
     <t>potential energy of a system of molecules in their 'configuration'. When we sum the potential energy for a collection of molecules, we often call the sum
 configurational energy to differentiate quantity from the potential energy which is commonly used when discussing atoms or sites.</t>
+  </si>
+  <si>
+    <t>Lorentz and Bertholet combining rules</t>
+  </si>
+  <si>
+    <t>rule which establishes that the distance between two touching molecules is equal to the radius of the first one plus the radius of the second one. It is conventional to
+estimate the stickiness by a geometric mean, but to permit flexibility to adjust the approximate rule by adding an adjustable constant that can be refined as the binary interaction parameter.</t>
+  </si>
+  <si>
+    <t>Internal energy</t>
+  </si>
+  <si>
+    <t>energy, heat</t>
+  </si>
+  <si>
+    <t>sum of microscopic random kinetic energy and intermolecular potential energies. It is given the symbol U.</t>
+  </si>
+  <si>
+    <t>Entropy</t>
+  </si>
+  <si>
+    <t>losses in the prospect of performing useful work, a kind of wastefulness and the generation of disorder which results in lost work.</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>portion of the universe which we have chosen to study.</t>
+  </si>
+  <si>
+    <t>system, conditions</t>
+  </si>
+  <si>
+    <t>Closed system</t>
+  </si>
+  <si>
+    <t>one in which no mass crosses the system boundaries.</t>
+  </si>
+  <si>
+    <t>Open system</t>
+  </si>
+  <si>
+    <t>Isolated system</t>
+  </si>
+  <si>
+    <t>one in which mass crosses the system boundaries. The system may gain or lose mass or simply have some mass pass through it.</t>
+  </si>
+  <si>
+    <t>one devoid of interactions of any kind with the surroundings (including mass exchange, heat, and work interactions).</t>
+  </si>
+  <si>
+    <t>The system boundaries should be clearly identified. If the system boundaries are changed, the simplification of the mass and energy balance equations should be performed again, because different balance terms are likely to be necessary.</t>
+  </si>
+  <si>
+    <t>Thermodynamics</t>
+  </si>
+  <si>
+    <t>study of 'energy movements' if we take the word apart: 'Thermo' &amp; 'Dynamics' (long story short).</t>
+  </si>
+  <si>
+    <t>thermodynamics</t>
   </si>
 </sst>
 </file>
@@ -598,7 +662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -629,9 +693,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -930,11 +991,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -2558,6 +2619,190 @@
       </c>
       <c r="G71" s="2" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="89.25">
+      <c r="A72" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="10">
+        <v>1</v>
+      </c>
+      <c r="E72" s="9">
+        <v>13</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="25.5">
+      <c r="A73" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="10">
+        <v>1</v>
+      </c>
+      <c r="E73" s="9">
+        <v>15</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="38.25">
+      <c r="A74" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="10">
+        <v>1</v>
+      </c>
+      <c r="E74" s="9">
+        <v>15</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="10">
+        <v>1</v>
+      </c>
+      <c r="E75" s="9">
+        <v>15</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="10">
+        <v>1</v>
+      </c>
+      <c r="E76" s="9">
+        <v>15</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="38.25">
+      <c r="A77" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="10">
+        <v>1</v>
+      </c>
+      <c r="E77" s="9">
+        <v>15</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="25.5">
+      <c r="A78" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="10">
+        <v>1</v>
+      </c>
+      <c r="E78" s="9">
+        <v>15</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="25.5">
+      <c r="A79" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="10">
+        <v>1</v>
+      </c>
+      <c r="E79" s="9">
+        <v>4</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2576,12 +2821,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="78.140625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="78.140625" style="11" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="9" customWidth="1"/>
     <col min="3" max="5" width="11.42578125" style="9"/>
     <col min="6" max="16384" width="11.42578125" style="2"/>
@@ -2608,7 +2853,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="25.5">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>146</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -2628,7 +2873,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="51">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>148</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -2648,7 +2893,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>157</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -2667,8 +2912,25 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:6" ht="38.25">
+      <c r="A5" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10">
+        <v>16</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ConceptsSheet.xlsx
+++ b/ConceptsSheet.xlsx
@@ -10,6 +10,9 @@
     <sheet name="Concepts" sheetId="1" r:id="rId1"/>
     <sheet name="Remeber" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Concepts!$A$1:$H$1</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="210">
   <si>
     <t>Concept</t>
   </si>
@@ -580,9 +583,6 @@
     <t>system</t>
   </si>
   <si>
-    <t>portion of the universe which we have chosen to study.</t>
-  </si>
-  <si>
     <t>system, conditions</t>
   </si>
   <si>
@@ -614,6 +614,51 @@
   </si>
   <si>
     <t>thermodynamics</t>
+  </si>
+  <si>
+    <t>Equilibrium state</t>
+  </si>
+  <si>
+    <t>state in which there are no longer any driving forces for spontaneous change of intensive variables. The system is 'relaxed' relative to all forces and potentials.</t>
+  </si>
+  <si>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>energy in transit between the source from which the energy is coming and a destination toward which the energy is going.</t>
+  </si>
+  <si>
+    <t>Heat conduction</t>
+  </si>
+  <si>
+    <t>Heat convection</t>
+  </si>
+  <si>
+    <t>Heat radiation</t>
+  </si>
+  <si>
+    <t>heat transfer in which faster-moving molecules collide with slower ones, exchanging kinetic energy and equilibrating the temperatures.</t>
+  </si>
+  <si>
+    <t>heat transfer in which packets of hot mass are circulated and mixed, accelerating the equilibration process.</t>
+  </si>
+  <si>
+    <t>heat transfer in which waves of electromagnetic energy emitted from a hot body are absorbed by a cooler body.</t>
+  </si>
+  <si>
+    <t>force acting through a distance.</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>measure of the quantity per unit volume and may be expressed on a molar basis (molar density) or a mass basis (mass density). In some situations, it is expressed as the number of particles per unit volume (number density).</t>
+  </si>
+  <si>
+    <t>magnitudes</t>
+  </si>
+  <si>
+    <t>portion of the universe which we have chosen to study; a control volume.</t>
   </si>
 </sst>
 </file>
@@ -991,11 +1036,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -2180,15 +2225,35 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="1:7" ht="51">
+    <row r="52" spans="1:7" ht="51">
+      <c r="A52" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="10">
+        <v>1</v>
+      </c>
+      <c r="E52" s="9">
+        <v>6</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="25.5">
       <c r="A53" s="7" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>7</v>
@@ -2197,21 +2262,21 @@
         <v>1</v>
       </c>
       <c r="E53" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="25.5">
       <c r="A54" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>7</v>
@@ -2231,10 +2296,10 @@
     </row>
     <row r="55" spans="1:7" ht="25.5">
       <c r="A55" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>7</v>
@@ -2243,21 +2308,21 @@
         <v>1</v>
       </c>
       <c r="E55" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="25.5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="38.25">
       <c r="A56" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>7</v>
@@ -2268,19 +2333,19 @@
       <c r="E56" s="9">
         <v>6</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>9</v>
+      <c r="F56" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="38.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="25.5">
       <c r="A57" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>7</v>
@@ -2291,19 +2356,19 @@
       <c r="E57" s="9">
         <v>6</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>163</v>
+      <c r="F57" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="25.5">
       <c r="A58" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>7</v>
@@ -2312,21 +2377,21 @@
         <v>1</v>
       </c>
       <c r="E58" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="25.5">
       <c r="A59" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>7</v>
@@ -2335,21 +2400,21 @@
         <v>1</v>
       </c>
       <c r="E59" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="25.5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="114.75">
       <c r="A60" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>7</v>
@@ -2358,21 +2423,21 @@
         <v>1</v>
       </c>
       <c r="E60" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="114.75">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>7</v>
@@ -2387,15 +2452,15 @@
         <v>9</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="38.25">
       <c r="A62" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>7</v>
@@ -2410,15 +2475,15 @@
         <v>9</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="38.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="25.5">
       <c r="A63" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>7</v>
@@ -2427,21 +2492,21 @@
         <v>1</v>
       </c>
       <c r="E63" s="9">
-        <v>8</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="25.5">
+    <row r="64" spans="1:7" ht="38.25">
       <c r="A64" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>7</v>
@@ -2456,15 +2521,15 @@
         <v>163</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="38.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="25.5">
       <c r="A65" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>7</v>
@@ -2479,15 +2544,15 @@
         <v>163</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="25.5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="89.25">
       <c r="A66" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>7</v>
@@ -2496,21 +2561,22 @@
         <v>1</v>
       </c>
       <c r="E66" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>163</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="89.25">
+        <v>167</v>
+      </c>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" ht="25.5">
       <c r="A67" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>7</v>
@@ -2519,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="E67" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>163</v>
@@ -2527,11 +2593,10 @@
       <c r="G67" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="H67" s="4"/>
     </row>
     <row r="68" spans="1:8" ht="25.5">
       <c r="A68" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>173</v>
@@ -2554,7 +2619,7 @@
     </row>
     <row r="69" spans="1:8" ht="25.5">
       <c r="A69" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>173</v>
@@ -2575,12 +2640,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="25.5">
+    <row r="70" spans="1:8" ht="76.5">
       <c r="A70" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>7</v>
@@ -2589,21 +2654,21 @@
         <v>1</v>
       </c>
       <c r="E70" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>163</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="76.5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="89.25">
       <c r="A71" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>7</v>
@@ -2612,21 +2677,21 @@
         <v>1</v>
       </c>
       <c r="E71" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>163</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="89.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="25.5">
       <c r="A72" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>7</v>
@@ -2635,21 +2700,21 @@
         <v>1</v>
       </c>
       <c r="E72" s="9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="25.5">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="38.25">
       <c r="A73" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>7</v>
@@ -2667,12 +2732,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="38.25">
+    <row r="74" spans="1:8" ht="25.5">
       <c r="A74" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>7</v>
@@ -2687,15 +2752,15 @@
         <v>9</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C75" s="10" t="s">
         <v>7</v>
@@ -2710,15 +2775,15 @@
         <v>9</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="38.25">
       <c r="A76" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>7</v>
@@ -2733,10 +2798,10 @@
         <v>9</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="38.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="25.5">
       <c r="A77" s="7" t="s">
         <v>188</v>
       </c>
@@ -2756,15 +2821,15 @@
         <v>9</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="25.5">
       <c r="A78" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>7</v>
@@ -2773,21 +2838,21 @@
         <v>1</v>
       </c>
       <c r="E78" s="9">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="25.5">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="38.25">
       <c r="A79" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>7</v>
@@ -2796,16 +2861,155 @@
         <v>1</v>
       </c>
       <c r="E79" s="9">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>195</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="38.25">
+      <c r="A80" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="10">
+        <v>1</v>
+      </c>
+      <c r="E80" s="9">
+        <v>17</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="38.25">
+      <c r="A81" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="10">
+        <v>1</v>
+      </c>
+      <c r="E81" s="9">
+        <v>17</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="25.5">
+      <c r="A82" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="10">
+        <v>1</v>
+      </c>
+      <c r="E82" s="9">
+        <v>17</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="25.5">
+      <c r="A83" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="10">
+        <v>1</v>
+      </c>
+      <c r="E83" s="9">
+        <v>17</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="10">
+        <v>1</v>
+      </c>
+      <c r="E84" s="9">
+        <v>17</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="51">
+      <c r="A85" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="10">
+        <v>1</v>
+      </c>
+      <c r="E85" s="9">
+        <v>17</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -2914,7 +3118,7 @@
     </row>
     <row r="5" spans="1:6" ht="38.25">
       <c r="A5" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>7</v>

--- a/ConceptsSheet.xlsx
+++ b/ConceptsSheet.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Concepts" sheetId="1" r:id="rId1"/>
     <sheet name="Remeber" sheetId="2" r:id="rId2"/>
+    <sheet name="Notes" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Concepts!$A$1:$H$1</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="276">
   <si>
     <t>Concept</t>
   </si>
@@ -153,9 +154,6 @@
   </si>
   <si>
     <t>Isentropic efficiency</t>
-  </si>
-  <si>
-    <t>azeotropy</t>
   </si>
   <si>
     <t>conditions</t>
@@ -408,9 +406,6 @@
     <t>Glossary</t>
   </si>
   <si>
-    <t>Maintaining order requires work. Entropy generation leads to lost work.</t>
-  </si>
-  <si>
     <t>Kinetic energy</t>
   </si>
   <si>
@@ -430,9 +425,6 @@
   </si>
   <si>
     <t>Zeroth law of thermodynamics</t>
-  </si>
-  <si>
-    <t>fact that ou can’t get something for nothing. Energy is conserved.</t>
   </si>
   <si>
     <t>sum total of all capacity for doing work that is associated with matter: kinetic, potential, submolecular (i.e., molecular rearrangements by reaction), or subatomic (e.g., onization, fission).</t>
@@ -655,10 +647,219 @@
     <t>measure of the quantity per unit volume and may be expressed on a molar basis (molar density) or a mass basis (mass density). In some situations, it is expressed as the number of particles per unit volume (number density).</t>
   </si>
   <si>
-    <t>magnitudes</t>
-  </si>
-  <si>
     <t>portion of the universe which we have chosen to study; a control volume.</t>
+  </si>
+  <si>
+    <t>Intensive property</t>
+  </si>
+  <si>
+    <t>property which is independent of the size of the system.</t>
+  </si>
+  <si>
+    <t>The distinction between intensive and extensive properties is key in selecting and
+using variables for problem solving.</t>
+  </si>
+  <si>
+    <t>Extensive property</t>
+  </si>
+  <si>
+    <t>property which depends on the size of the system.</t>
+  </si>
+  <si>
+    <t>Degrees of freedom</t>
+  </si>
+  <si>
+    <t>Gibbs phase rule</t>
+  </si>
+  <si>
+    <t>energy, system, conditions, states, laws</t>
+  </si>
+  <si>
+    <t>system, conditions, states, laws</t>
+  </si>
+  <si>
+    <t>number of state variables that can be varied. The reduction in the needed specifications is referred to as a reduction in the 'degrees of freedom'.</t>
+  </si>
+  <si>
+    <t>rule that provides the number of state variables (intensive properties) to specify the state of the system.</t>
+  </si>
+  <si>
+    <t>State variable</t>
+  </si>
+  <si>
+    <t>necessary variables to specify the state of a system (P,V,T,U...).</t>
+  </si>
+  <si>
+    <t>Ideal Gas</t>
+  </si>
+  <si>
+    <t>model fluid where the molecules have no attractive potential energy and no size (and thus, no repulsive potential energy). Properties of the ideal gas are calculated from the ideal
+gas model,</t>
+  </si>
+  <si>
+    <t>substances, mixtures</t>
+  </si>
+  <si>
+    <t>Ideal Gas Law</t>
+  </si>
+  <si>
+    <t>equation of state that relates the P-V-T properties of an ideal gas which is not always valid, but gives an initial guess.</t>
+  </si>
+  <si>
+    <t>substances, mixtures, law, EOS</t>
+  </si>
+  <si>
+    <t>Ideal Gas Model</t>
+  </si>
+  <si>
+    <t>EOS, energy</t>
+  </si>
+  <si>
+    <t>proportionality constant between temperature and internal energy</t>
+  </si>
+  <si>
+    <t>Ideal gas heat capacity</t>
+  </si>
+  <si>
+    <t>EOS, heat</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>states, EOS</t>
+  </si>
+  <si>
+    <t>force exerted per unit area</t>
+  </si>
+  <si>
+    <t>EOS, states</t>
+  </si>
+  <si>
+    <t>azeotropy, graphics</t>
+  </si>
+  <si>
+    <t>conditions, graphics</t>
+  </si>
+  <si>
+    <t>Saturation condition</t>
+  </si>
+  <si>
+    <t>condition where two phases coexist.</t>
+  </si>
+  <si>
+    <t>Phase envelope</t>
+  </si>
+  <si>
+    <t>hump on the phase diagram.</t>
+  </si>
+  <si>
+    <t>Tie lines</t>
+  </si>
+  <si>
+    <t>horizontal lines inside the curves of a phase diagram.</t>
+  </si>
+  <si>
+    <t>Bubble line</t>
+  </si>
+  <si>
+    <t>conditions where boiling (bubbles) can occur in the liquid.</t>
+  </si>
+  <si>
+    <t>Dew line</t>
+  </si>
+  <si>
+    <t>conditions where droplets (dew) can occur in the vapor.</t>
+  </si>
+  <si>
+    <t>Pressure is proportional to the number of particles in a volumne and to the kinetic energy of the particles.</t>
+  </si>
+  <si>
+    <t>Liquids are quite incompressible.</t>
+  </si>
+  <si>
+    <t>Kinetic energy is the only form of energy for an ideal gas.</t>
+  </si>
+  <si>
+    <t>The critical temperature and critical pressure are key characteristic properties of a fluid.</t>
+  </si>
+  <si>
+    <t>conditions, properties</t>
+  </si>
+  <si>
+    <t>Steam</t>
+  </si>
+  <si>
+    <t>Saturated steam</t>
+  </si>
+  <si>
+    <t>vapor at dew point.</t>
+  </si>
+  <si>
+    <t>vapor state.</t>
+  </si>
+  <si>
+    <t>Critical point</t>
+  </si>
+  <si>
+    <t>conditions, states, graphics</t>
+  </si>
+  <si>
+    <t>Critical temperature</t>
+  </si>
+  <si>
+    <t>Critical pressure</t>
+  </si>
+  <si>
+    <t>Supercritical</t>
+  </si>
+  <si>
+    <t>Compressed liquid</t>
+  </si>
+  <si>
+    <t>liquid whose pressure is above the saturation pressure at the specified temperature.</t>
+  </si>
+  <si>
+    <t>temperature at which vapor and liquid phases are identical on the saturation curve of a phase diagram,</t>
+  </si>
+  <si>
+    <t>point in which the phases become identical in a phase diagram.</t>
+  </si>
+  <si>
+    <t>pressure at which vapor and liquid phases are identical on the saturation curve of a phase diagram,</t>
+  </si>
+  <si>
+    <t>fluid above the critical temperature and pressure.</t>
+  </si>
+  <si>
+    <t>fact that you can’t get something for nothing. Overall energy is conserved.</t>
+  </si>
+  <si>
+    <t>Maintaining order requires work. Generation of disorder results in lost work. Overall entropy changes are greater than or equal to zero.</t>
+  </si>
+  <si>
+    <t>There are times when the endeavor to apply these simple laws seems daunting, but the answer appears simple in retrospect,once obtained.</t>
+  </si>
+  <si>
+    <t>laws, random</t>
+  </si>
+  <si>
+    <t>Try not to be distracted by the vocabulary or the tedious notation that goes into keeping all the coupled systems classified in textbook fashion.</t>
+  </si>
+  <si>
+    <t>Keep in mind that other students have passed through this…</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>Several topics of unit 2 of Elliot ICET02 have been taken out of consideration</t>
+  </si>
+  <si>
+    <t>Several topics of unit 1 of Elliot ICET02 have been taken out of consideration, (Regression)</t>
+  </si>
+  <si>
+    <t>When you can measure what you are speaking about, and express it in numbers, you know something about it. When you cannot measure it, your knowledge is meager and unsatisfactory. (Lord Kelvin)</t>
   </si>
 </sst>
 </file>
@@ -707,7 +908,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -741,6 +942,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1036,19 +1246,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="16" style="7" customWidth="1"/>
     <col min="2" max="2" width="52.42578125" style="8" customWidth="1"/>
-    <col min="3" max="4" width="13.5703125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="9"/>
+    <col min="3" max="3" width="13.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="13"/>
     <col min="6" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
@@ -1062,10 +1273,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1085,17 +1296,17 @@
       <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="25.5">
@@ -1108,17 +1319,17 @@
       <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="25.5">
@@ -1131,17 +1342,17 @@
       <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>43</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="38.25">
@@ -1154,17 +1365,17 @@
       <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1177,17 +1388,17 @@
       <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="38.25">
@@ -1200,17 +1411,17 @@
       <c r="C7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="25.5">
@@ -1223,17 +1434,17 @@
       <c r="C8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1246,10 +1457,10 @@
       <c r="C9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -1269,17 +1480,17 @@
       <c r="C10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="76.5">
@@ -1292,17 +1503,17 @@
       <c r="C11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>43</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="25.5">
@@ -1315,17 +1526,17 @@
       <c r="C12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1338,17 +1549,17 @@
       <c r="C13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1361,17 +1572,17 @@
       <c r="C14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="D14" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1384,17 +1595,17 @@
       <c r="C15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="38.25">
@@ -1407,17 +1618,17 @@
       <c r="C16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1430,17 +1641,17 @@
       <c r="C17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="D17" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1453,241 +1664,241 @@
       <c r="C18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>45</v>
+      <c r="D18" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="C19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>45</v>
+      <c r="D19" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="C20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>45</v>
+      <c r="D20" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="38.25">
       <c r="A21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>45</v>
+      <c r="D21" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>45</v>
+      <c r="D22" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="C23" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>45</v>
+      <c r="D23" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="25.5">
       <c r="A25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="51">
       <c r="A26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="C26" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>45</v>
+      <c r="D26" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="25.5">
       <c r="A27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="C27" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>45</v>
+      <c r="D27" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="25.5">
       <c r="A28" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>45</v>
+      <c r="D28" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>9</v>
@@ -1698,1314 +1909,1820 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="C29" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>45</v>
+      <c r="D29" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>45</v>
+      <c r="D30" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="63.75">
       <c r="A31" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="C31" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>45</v>
+      <c r="D31" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="25.5">
       <c r="A32" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="C32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>78</v>
-      </c>
       <c r="C33" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>45</v>
+      <c r="D33" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>80</v>
-      </c>
       <c r="C34" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>45</v>
+      <c r="D34" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>82</v>
-      </c>
       <c r="C35" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>45</v>
+      <c r="D35" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="25.5">
       <c r="A36" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="C36" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="25.5">
       <c r="A37" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>87</v>
-      </c>
       <c r="C37" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>45</v>
+      <c r="D37" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="25.5">
       <c r="A38" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>89</v>
-      </c>
       <c r="C38" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>45</v>
+      <c r="D38" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="38.25">
       <c r="A39" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="165.75">
       <c r="A40" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>94</v>
-      </c>
       <c r="C40" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>45</v>
+      <c r="D40" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="25.5">
       <c r="A41" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="C41" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="38.25">
       <c r="A42" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>102</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="102">
       <c r="A44" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>104</v>
-      </c>
       <c r="C44" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>102</v>
+      <c r="D44" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="25.5">
       <c r="A45" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>106</v>
-      </c>
       <c r="C45" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>102</v>
+      <c r="D45" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="38.25">
       <c r="A46" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>108</v>
-      </c>
       <c r="C46" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>102</v>
+      <c r="D46" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="51">
       <c r="A47" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="38.25">
       <c r="A48" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="C48" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="25.5">
       <c r="A49" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>116</v>
-      </c>
       <c r="C49" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>102</v>
+      <c r="D49" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>118</v>
-      </c>
       <c r="C50" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>102</v>
+      <c r="D50" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="C51" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="51">
       <c r="A52" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="14">
+        <v>1</v>
+      </c>
+      <c r="E52" s="13">
+        <v>6</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="10">
-        <v>1</v>
-      </c>
-      <c r="E52" s="9">
-        <v>6</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="25.5">
       <c r="A53" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>135</v>
+        <v>266</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="10">
-        <v>1</v>
-      </c>
-      <c r="E53" s="9">
+      <c r="D53" s="14">
+        <v>1</v>
+      </c>
+      <c r="E53" s="13">
         <v>4</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="25.5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="38.25">
       <c r="A54" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>127</v>
+        <v>267</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="10">
-        <v>1</v>
-      </c>
-      <c r="E54" s="9">
-        <v>4</v>
+      <c r="D54" s="14">
+        <v>1</v>
+      </c>
+      <c r="E54" s="13">
+        <v>4.33</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="25.5">
       <c r="A55" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="10">
-        <v>1</v>
-      </c>
-      <c r="E55" s="9">
+      <c r="D55" s="14">
+        <v>1</v>
+      </c>
+      <c r="E55" s="13">
         <v>6</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="38.25">
       <c r="A56" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="10">
-        <v>1</v>
-      </c>
-      <c r="E56" s="9">
+      <c r="D56" s="14">
+        <v>1</v>
+      </c>
+      <c r="E56" s="13">
         <v>6</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="25.5">
       <c r="A57" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="10">
-        <v>1</v>
-      </c>
-      <c r="E57" s="9">
+      <c r="D57" s="14">
+        <v>1</v>
+      </c>
+      <c r="E57" s="13">
         <v>6</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="25.5">
       <c r="A58" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="10">
-        <v>1</v>
-      </c>
-      <c r="E58" s="9">
+      <c r="D58" s="14">
+        <v>1</v>
+      </c>
+      <c r="E58" s="13">
         <v>7</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="25.5">
       <c r="A59" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="10">
-        <v>1</v>
-      </c>
-      <c r="E59" s="9">
+      <c r="D59" s="14">
+        <v>1</v>
+      </c>
+      <c r="E59" s="13">
         <v>6</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="114.75">
       <c r="A60" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D60" s="10">
-        <v>1</v>
-      </c>
-      <c r="E60" s="9">
+      <c r="D60" s="14">
+        <v>1</v>
+      </c>
+      <c r="E60" s="13">
         <v>8</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="10">
-        <v>1</v>
-      </c>
-      <c r="E61" s="9">
+      <c r="D61" s="14">
+        <v>1</v>
+      </c>
+      <c r="E61" s="13">
         <v>8</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="38.25">
       <c r="A62" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="10">
-        <v>1</v>
-      </c>
-      <c r="E62" s="9">
+      <c r="D62" s="14">
+        <v>1</v>
+      </c>
+      <c r="E62" s="13">
         <v>8</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="25.5">
       <c r="A63" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="10">
-        <v>1</v>
-      </c>
-      <c r="E63" s="9">
+      <c r="D63" s="14">
+        <v>1</v>
+      </c>
+      <c r="E63" s="13">
         <v>9</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="38.25">
       <c r="A64" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="10">
-        <v>1</v>
-      </c>
-      <c r="E64" s="9">
+      <c r="D64" s="14">
+        <v>1</v>
+      </c>
+      <c r="E64" s="13">
         <v>9</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="25.5">
       <c r="A65" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D65" s="10">
-        <v>1</v>
-      </c>
-      <c r="E65" s="9">
+      <c r="D65" s="14">
+        <v>1</v>
+      </c>
+      <c r="E65" s="13">
         <v>9</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="89.25">
       <c r="A66" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>169</v>
-      </c>
       <c r="C66" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="10">
-        <v>1</v>
-      </c>
-      <c r="E66" s="9">
+      <c r="D66" s="14">
+        <v>1</v>
+      </c>
+      <c r="E66" s="13">
         <v>10</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H66" s="4"/>
     </row>
     <row r="67" spans="1:8" ht="25.5">
       <c r="A67" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D67" s="10">
-        <v>1</v>
-      </c>
-      <c r="E67" s="9">
+      <c r="D67" s="14">
+        <v>1</v>
+      </c>
+      <c r="E67" s="13">
         <v>11</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="25.5">
       <c r="A68" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>173</v>
-      </c>
       <c r="C68" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D68" s="10">
-        <v>1</v>
-      </c>
-      <c r="E68" s="9">
+      <c r="D68" s="14">
+        <v>1</v>
+      </c>
+      <c r="E68" s="13">
         <v>11</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="25.5">
       <c r="A69" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D69" s="10">
-        <v>1</v>
-      </c>
-      <c r="E69" s="9">
+      <c r="D69" s="14">
+        <v>1</v>
+      </c>
+      <c r="E69" s="13">
         <v>11</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="76.5">
       <c r="A70" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D70" s="10">
-        <v>1</v>
-      </c>
-      <c r="E70" s="9">
+      <c r="D70" s="14">
+        <v>1</v>
+      </c>
+      <c r="E70" s="13">
         <v>12</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="89.25">
       <c r="A71" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D71" s="10">
-        <v>1</v>
-      </c>
-      <c r="E71" s="9">
+      <c r="D71" s="14">
+        <v>1</v>
+      </c>
+      <c r="E71" s="13">
         <v>13</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="25.5">
       <c r="A72" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D72" s="10">
-        <v>1</v>
-      </c>
-      <c r="E72" s="9">
+      <c r="D72" s="14">
+        <v>1</v>
+      </c>
+      <c r="E72" s="13">
         <v>15</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="38.25">
       <c r="A73" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D73" s="10">
-        <v>1</v>
-      </c>
-      <c r="E73" s="9">
+      <c r="D73" s="14">
+        <v>1</v>
+      </c>
+      <c r="E73" s="13">
         <v>15</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="25.5">
       <c r="A74" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D74" s="10">
-        <v>1</v>
-      </c>
-      <c r="E74" s="9">
+      <c r="D74" s="14">
+        <v>1</v>
+      </c>
+      <c r="E74" s="13">
         <v>15</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C75" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D75" s="10">
-        <v>1</v>
-      </c>
-      <c r="E75" s="9">
+      <c r="D75" s="14">
+        <v>1</v>
+      </c>
+      <c r="E75" s="13">
         <v>15</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="38.25">
       <c r="A76" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D76" s="10">
-        <v>1</v>
-      </c>
-      <c r="E76" s="9">
+      <c r="D76" s="14">
+        <v>1</v>
+      </c>
+      <c r="E76" s="13">
         <v>15</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="25.5">
       <c r="A77" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D77" s="10">
-        <v>1</v>
-      </c>
-      <c r="E77" s="9">
+      <c r="D77" s="14">
+        <v>1</v>
+      </c>
+      <c r="E77" s="13">
         <v>15</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="25.5">
       <c r="A78" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="10">
-        <v>1</v>
-      </c>
-      <c r="E78" s="9">
+      <c r="D78" s="14">
+        <v>1</v>
+      </c>
+      <c r="E78" s="13">
         <v>4</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="38.25">
       <c r="A79" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D79" s="10">
-        <v>1</v>
-      </c>
-      <c r="E79" s="9">
+      <c r="D79" s="14">
+        <v>1</v>
+      </c>
+      <c r="E79" s="13">
         <v>16</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="38.25">
       <c r="A80" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C80" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D80" s="10">
-        <v>1</v>
-      </c>
-      <c r="E80" s="9">
+      <c r="D80" s="14">
+        <v>1</v>
+      </c>
+      <c r="E80" s="13">
         <v>17</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="38.25">
       <c r="A81" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B81" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B81" s="8" t="s">
-        <v>202</v>
-      </c>
       <c r="C81" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D81" s="10">
-        <v>1</v>
-      </c>
-      <c r="E81" s="9">
+      <c r="D81" s="14">
+        <v>1</v>
+      </c>
+      <c r="E81" s="13">
         <v>17</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="25.5">
       <c r="A82" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B82" s="8" t="s">
-        <v>203</v>
-      </c>
       <c r="C82" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D82" s="10">
-        <v>1</v>
-      </c>
-      <c r="E82" s="9">
+      <c r="D82" s="14">
+        <v>1</v>
+      </c>
+      <c r="E82" s="13">
         <v>17</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="25.5">
       <c r="A83" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B83" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B83" s="8" t="s">
-        <v>204</v>
-      </c>
       <c r="C83" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="10">
-        <v>1</v>
-      </c>
-      <c r="E83" s="9">
+      <c r="D83" s="14">
+        <v>1</v>
+      </c>
+      <c r="E83" s="13">
         <v>17</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D84" s="10">
-        <v>1</v>
-      </c>
-      <c r="E84" s="9">
+      <c r="D84" s="14">
+        <v>1</v>
+      </c>
+      <c r="E84" s="13">
         <v>17</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="51">
       <c r="A85" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="14">
+        <v>1</v>
+      </c>
+      <c r="E85" s="13">
+        <v>17</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B86" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C85" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" s="10">
-        <v>1</v>
-      </c>
-      <c r="E85" s="9">
+      <c r="C86" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="14">
+        <v>1</v>
+      </c>
+      <c r="E86" s="13">
         <v>17</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>208</v>
+      <c r="F86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="25.5">
+      <c r="A87" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="14">
+        <v>1</v>
+      </c>
+      <c r="E87" s="13">
+        <v>18</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="38.25">
+      <c r="A88" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="14">
+        <v>1</v>
+      </c>
+      <c r="E88" s="13">
+        <v>18</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="25.5">
+      <c r="A89" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="14">
+        <v>1</v>
+      </c>
+      <c r="E89" s="13">
+        <v>18</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="25.5">
+      <c r="A90" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="14">
+        <v>1</v>
+      </c>
+      <c r="E90" s="13">
+        <v>18</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="51">
+      <c r="A91" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="14">
+        <v>1</v>
+      </c>
+      <c r="E91" s="13">
+        <v>18</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="25.5">
+      <c r="A92" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="14">
+        <v>1</v>
+      </c>
+      <c r="E92" s="13">
+        <v>18</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="25.5">
+      <c r="A93" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="14">
+        <v>1</v>
+      </c>
+      <c r="E93" s="13">
+        <v>18</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="25.5">
+      <c r="A94" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="14">
+        <v>1</v>
+      </c>
+      <c r="E94" s="13">
+        <v>18</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="14">
+        <v>1</v>
+      </c>
+      <c r="E95" s="13">
+        <v>20</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="25.5">
+      <c r="A96" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="14">
+        <v>1</v>
+      </c>
+      <c r="E96" s="13">
+        <v>23</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="13">
+        <v>1</v>
+      </c>
+      <c r="E97" s="13">
+        <v>23</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="13">
+        <v>1</v>
+      </c>
+      <c r="E98" s="13">
+        <v>23</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="13">
+        <v>1</v>
+      </c>
+      <c r="E99" s="13">
+        <v>23</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="13">
+        <v>1</v>
+      </c>
+      <c r="E100" s="13">
+        <v>23</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="13">
+        <v>1</v>
+      </c>
+      <c r="E101" s="13">
+        <v>24</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="13">
+        <v>1</v>
+      </c>
+      <c r="E102" s="13">
+        <v>24</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="25.5">
+      <c r="A103" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="13">
+        <v>1</v>
+      </c>
+      <c r="E103" s="13">
+        <v>24</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="25.5">
+      <c r="A104" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="13">
+        <v>1</v>
+      </c>
+      <c r="E104" s="13">
+        <v>24</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="25.5">
+      <c r="A105" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="13">
+        <v>1</v>
+      </c>
+      <c r="E105" s="13">
+        <v>24</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="25.5">
+      <c r="A106" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" s="13">
+        <v>1</v>
+      </c>
+      <c r="E106" s="13">
+        <v>25</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" s="13">
+        <v>1</v>
+      </c>
+      <c r="E107" s="13">
+        <v>24</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -3021,11 +3738,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -3038,13 +3755,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -3058,7 +3775,7 @@
     </row>
     <row r="2" spans="1:6" ht="25.5">
       <c r="A2" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>7</v>
@@ -3073,12 +3790,12 @@
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="51">
       <c r="A3" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>7</v>
@@ -3093,12 +3810,12 @@
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>7</v>
@@ -3113,12 +3830,12 @@
         <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="38.25">
       <c r="A5" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>7</v>
@@ -3133,7 +3850,212 @@
         <v>9</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="25.5">
+      <c r="A6" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
+        <v>17</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10">
+        <v>19</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="25.5">
+      <c r="A8" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10">
+        <v>21</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10">
+        <v>24</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10">
+        <v>24</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="25.5">
+      <c r="A11" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10">
+        <v>33</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="25.5">
+      <c r="A12" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10">
+        <v>33</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10">
+        <v>33</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="38.25">
+      <c r="A14" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9">
+        <v>39</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
